--- a/result/with_base/124/arousal/s21_8.xlsx
+++ b/result/with_base/124/arousal/s21_8.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9453125</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8325000107288361</v>
+        <v>0.8364955484867096</v>
       </c>
       <c r="C2" t="n">
-        <v>41718.0703125</v>
+        <v>11287.1376953125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8364772688258778</v>
+        <v>0.8390231097445768</v>
       </c>
       <c r="E2" t="n">
-        <v>41712.75142045454</v>
+        <v>11288.20323988971</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.8666294515132904</v>
       </c>
       <c r="C3" t="n">
-        <v>40929.181640625</v>
+        <v>10982.92578125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8893181735819037</v>
+        <v>0.8935136549613055</v>
       </c>
       <c r="E3" t="n">
-        <v>40929.97301136364</v>
+        <v>10982.35259650735</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.8705357015132904</v>
       </c>
       <c r="C4" t="n">
-        <v>40152.6328125</v>
+        <v>10683.2958984375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9085227251052856</v>
+        <v>0.9134059863931993</v>
       </c>
       <c r="E4" t="n">
-        <v>40155.58629261364</v>
+        <v>10683.04831112132</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9175000190734863</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C5" t="n">
-        <v>39389.857421875</v>
+        <v>10389.6640625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9355681863698092</v>
+        <v>0.9130777295897988</v>
       </c>
       <c r="E5" t="n">
-        <v>39389.65305397727</v>
+        <v>10389.33921185662</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.8967633843421936</v>
       </c>
       <c r="C6" t="n">
-        <v>38636.40234375</v>
+        <v>10102.400390625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9306818192655389</v>
+        <v>0.8985031527631423</v>
       </c>
       <c r="E6" t="n">
-        <v>38636.58025568182</v>
+        <v>10102.11293658088</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9040178656578064</v>
       </c>
       <c r="C7" t="n">
-        <v>37894.921875</v>
+        <v>9820.09130859375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9506818110292609</v>
+        <v>0.9453781527631423</v>
       </c>
       <c r="E7" t="n">
-        <v>37894.57066761364</v>
+        <v>9819.348345588236</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C8" t="n">
-        <v>37165.40234375</v>
+        <v>9545.3427734375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9562500010837208</v>
+        <v>0.9368434863931993</v>
       </c>
       <c r="E8" t="n">
-        <v>37165.57528409091</v>
+        <v>9544.674345128677</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C9" t="n">
-        <v>36448.095703125</v>
+        <v>9276.7451171875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9607954512942921</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="E9" t="n">
-        <v>36448.39240056818</v>
+        <v>9276.002699908087</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9296875</v>
       </c>
       <c r="C10" t="n">
-        <v>35744.939453125</v>
+        <v>9014.416015625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9652272733775052</v>
+        <v>0.9631039920975181</v>
       </c>
       <c r="E10" t="n">
-        <v>35744.08167613636</v>
+        <v>9013.769416360294</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C11" t="n">
-        <v>35052.845703125</v>
+        <v>8758.95068359375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9737500114874407</v>
+        <v>0.9569984253715066</v>
       </c>
       <c r="E11" t="n">
-        <v>35051.85795454546</v>
+        <v>8758.280445772059</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9375</v>
       </c>
       <c r="C12" t="n">
-        <v>34374.234375</v>
+        <v>8509.3525390625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9660227298736572</v>
+        <v>0.968487395959742</v>
       </c>
       <c r="E12" t="n">
-        <v>34372.63955965909</v>
+        <v>8508.790326286764</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C13" t="n">
-        <v>33705.349609375</v>
+        <v>8266.42529296875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9789772792295977</v>
+        <v>0.9615283608436584</v>
       </c>
       <c r="E13" t="n">
-        <v>33704.76598011364</v>
+        <v>8265.92440257353</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.94140625</v>
       </c>
       <c r="C14" t="n">
-        <v>33050.955078125</v>
+        <v>8029.52783203125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.976363642649217</v>
+        <v>0.9735425430185655</v>
       </c>
       <c r="E14" t="n">
-        <v>33049.46377840909</v>
+        <v>8028.939022288603</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C15" t="n">
-        <v>32405.896484375</v>
+        <v>7798.667724609375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9832954623482444</v>
+        <v>0.9577862409984365</v>
       </c>
       <c r="E15" t="n">
-        <v>32405.40749289773</v>
+        <v>7798.268784466912</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9296875</v>
       </c>
       <c r="C16" t="n">
-        <v>31773.990234375</v>
+        <v>7574.069091796875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9839772798798301</v>
+        <v>0.9639574569814345</v>
       </c>
       <c r="E16" t="n">
-        <v>31773.36754261364</v>
+        <v>7573.548167509191</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.949999988079071</v>
+        <v>0.93359375</v>
       </c>
       <c r="C17" t="n">
-        <v>31154.5498046875</v>
+        <v>7355.01220703125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9777272939682007</v>
+        <v>0.9827993687461404</v>
       </c>
       <c r="E17" t="n">
-        <v>31153.25213068182</v>
+        <v>7354.405934053309</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C18" t="n">
-        <v>30544.904296875</v>
+        <v>7141.7353515625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9852272813970392</v>
+        <v>0.9870667001780342</v>
       </c>
       <c r="E18" t="n">
-        <v>30544.23135653409</v>
+        <v>7141.22900390625</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9196428656578064</v>
       </c>
       <c r="C19" t="n">
-        <v>29946.8544921875</v>
+        <v>6934.188232421875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9762500145218589</v>
+        <v>0.9805672273916357</v>
       </c>
       <c r="E19" t="n">
-        <v>29946.81178977273</v>
+        <v>6933.659553079044</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C20" t="n">
-        <v>29360.5947265625</v>
+        <v>6732.064697265625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9894318255511197</v>
+        <v>0.9856880237074459</v>
       </c>
       <c r="E20" t="n">
-        <v>29359.98544034091</v>
+        <v>6731.531364889706</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9453125</v>
       </c>
       <c r="C21" t="n">
-        <v>28784.69921875</v>
+        <v>6535.314208984375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.991136372089386</v>
+        <v>0.9838497884133283</v>
       </c>
       <c r="E21" t="n">
-        <v>28784.11541193182</v>
+        <v>6534.753446691177</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.94140625</v>
       </c>
       <c r="C22" t="n">
-        <v>28219.89453125</v>
+        <v>6343.589599609375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9737500006502325</v>
+        <v>0.9870010509210474</v>
       </c>
       <c r="E22" t="n">
-        <v>28219.41814630682</v>
+        <v>6343.179342830882</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9375</v>
       </c>
       <c r="C23" t="n">
-        <v>27665.4287109375</v>
+        <v>6157.143310546875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9820772058823529</v>
       </c>
       <c r="E23" t="n">
-        <v>27664.56995738636</v>
+        <v>6156.795237821691</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C24" t="n">
-        <v>27120.8515625</v>
+        <v>5975.855224609375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9746586119427401</v>
       </c>
       <c r="E24" t="n">
-        <v>27120.24520596591</v>
+        <v>5975.45157398897</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C25" t="n">
-        <v>26586.7275390625</v>
+        <v>5799.298583984375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9763655452167287</v>
       </c>
       <c r="E25" t="n">
-        <v>26586.07066761364</v>
+        <v>5798.887465533088</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.94140625</v>
       </c>
       <c r="C26" t="n">
-        <v>26062.6357421875</v>
+        <v>5627.350341796875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9794318350878629</v>
+        <v>0.9934348744504592</v>
       </c>
       <c r="E26" t="n">
-        <v>26062.12482244318</v>
+        <v>5627.02042164522</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C27" t="n">
-        <v>25548.0908203125</v>
+        <v>5460.380126953125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9943181872367859</v>
+        <v>0.9719669117647058</v>
       </c>
       <c r="E27" t="n">
-        <v>25547.47407670454</v>
+        <v>5459.99942555147</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.93359375</v>
       </c>
       <c r="C28" t="n">
-        <v>25042.958984375</v>
+        <v>5297.651611328125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9892045530405912</v>
+        <v>0.9769564060603871</v>
       </c>
       <c r="E28" t="n">
-        <v>25042.61594460227</v>
+        <v>5297.330193014706</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C29" t="n">
-        <v>24547.8564453125</v>
+        <v>5139.44970703125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E29" t="n">
-        <v>24547.19318181818</v>
+        <v>5139.06876148897</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C30" t="n">
-        <v>24061.32421875</v>
+        <v>4985.502685546875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9928409132090482</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E30" t="n">
-        <v>24060.9765625</v>
+        <v>4985.173483455882</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.94140625</v>
       </c>
       <c r="C31" t="n">
-        <v>23584.951171875</v>
+        <v>4835.846435546875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9887736334520227</v>
       </c>
       <c r="E31" t="n">
-        <v>23583.91566051136</v>
+        <v>4835.497041590073</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C32" t="n">
-        <v>23116.33984375</v>
+        <v>4690.28466796875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9894301470588235</v>
       </c>
       <c r="E32" t="n">
-        <v>23115.70276988636</v>
+        <v>4689.908978630515</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C33" t="n">
-        <v>22657.15625</v>
+        <v>4548.616455078125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9929545521736145</v>
+        <v>0.9902179626857534</v>
       </c>
       <c r="E33" t="n">
-        <v>22656.34410511364</v>
+        <v>4548.301872702206</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C34" t="n">
-        <v>22206.1708984375</v>
+        <v>4410.990478515625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.989545464515686</v>
+        <v>0.9680934863931993</v>
       </c>
       <c r="E34" t="n">
-        <v>22205.65625</v>
+        <v>4410.683708639706</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9453125</v>
       </c>
       <c r="C35" t="n">
-        <v>21763.470703125</v>
+        <v>4277.02001953125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9875919117647058</v>
       </c>
       <c r="E35" t="n">
-        <v>21763.265625</v>
+        <v>4276.694192325368</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C36" t="n">
-        <v>21329.8193359375</v>
+        <v>4146.76513671875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E36" t="n">
-        <v>21329.28852982954</v>
+        <v>4146.507611443015</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C37" t="n">
-        <v>20903.814453125</v>
+        <v>4020.15576171875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.988839286215165</v>
       </c>
       <c r="E37" t="n">
-        <v>20903.41974431818</v>
+        <v>4019.920295266544</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9553571343421936</v>
       </c>
       <c r="C38" t="n">
-        <v>20486.0244140625</v>
+        <v>3897.079345703125</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9786633393343758</v>
       </c>
       <c r="E38" t="n">
-        <v>20485.57049005682</v>
+        <v>3896.890237247243</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C39" t="n">
-        <v>20075.984375</v>
+        <v>3777.506958007812</v>
       </c>
       <c r="D39" t="n">
-        <v>0.993977275761691</v>
+        <v>0.9837184863931993</v>
       </c>
       <c r="E39" t="n">
-        <v>20075.59605823864</v>
+        <v>3777.237520105698</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C40" t="n">
-        <v>19673.3310546875</v>
+        <v>3661.201049804688</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9865414920975181</v>
       </c>
       <c r="E40" t="n">
-        <v>19673.27663352273</v>
+        <v>3660.953742532169</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C41" t="n">
-        <v>19278.64453125</v>
+        <v>3548.115844726562</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9897584038622239</v>
       </c>
       <c r="E41" t="n">
-        <v>19278.55291193182</v>
+        <v>3547.900390625</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C42" t="n">
-        <v>18891.7021484375</v>
+        <v>3438.290161132812</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9814863450386945</v>
       </c>
       <c r="E42" t="n">
-        <v>18891.25532670454</v>
+        <v>3438.102409811581</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C43" t="n">
-        <v>18511.3427734375</v>
+        <v>3331.536376953125</v>
       </c>
       <c r="D43" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9871323529411765</v>
       </c>
       <c r="E43" t="n">
-        <v>18511.22141335227</v>
+        <v>3331.276611328125</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C44" t="n">
-        <v>18138.58984375</v>
+        <v>3227.72021484375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9865414920975181</v>
       </c>
       <c r="E44" t="n">
-        <v>18138.37144886364</v>
+        <v>3227.519545611213</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.949999988079071</v>
+        <v>0.94921875</v>
       </c>
       <c r="C45" t="n">
-        <v>17773.0478515625</v>
+        <v>3126.922607421875</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9802389705882353</v>
       </c>
       <c r="E45" t="n">
-        <v>17772.57457386364</v>
+        <v>3126.712000229779</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C46" t="n">
-        <v>17414.0615234375</v>
+        <v>3028.87890625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9851628156269298</v>
       </c>
       <c r="E46" t="n">
-        <v>17413.70933948864</v>
+        <v>3028.694091796875</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C47" t="n">
-        <v>17062.22265625</v>
+        <v>2933.669189453125</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9861475825309753</v>
       </c>
       <c r="E47" t="n">
-        <v>17061.55823863636</v>
+        <v>2933.513442095588</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9430803656578064</v>
       </c>
       <c r="C48" t="n">
-        <v>16716.6728515625</v>
+        <v>2841.23046875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9711134468807894</v>
       </c>
       <c r="E48" t="n">
-        <v>16716.123046875</v>
+        <v>2841.059354894302</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C49" t="n">
-        <v>16377.42431640625</v>
+        <v>2751.458618164062</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9784663880572599</v>
       </c>
       <c r="E49" t="n">
-        <v>16377.22691761364</v>
+        <v>2751.232536764706</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C50" t="n">
-        <v>16044.93798828125</v>
+        <v>2664.257690429688</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9661896018420949</v>
       </c>
       <c r="E50" t="n">
-        <v>16044.72842684659</v>
+        <v>2663.996266084559</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,784 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9453125</v>
       </c>
       <c r="C51" t="n">
-        <v>15718.662109375</v>
+        <v>2579.424560546875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9865414920975181</v>
       </c>
       <c r="E51" t="n">
-        <v>15718.54279119318</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15399.02197265625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15398.533203125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15085.00537109375</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15084.60715553977</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14776.88330078125</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9922727292234247</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14776.66299715909</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14474.64453125</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14474.49272017045</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14178.3046875</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14178.14444247159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13887.6328125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.995568183335391</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13887.42276278409</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13602.3935546875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13602.21031605114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13322.87353515625</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9945454597473145</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13322.474609375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13048.16943359375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13048.03053977273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12778.97802734375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12778.86665482955</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12515.3828125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9940909147262573</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12514.81844815341</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12256.2255859375</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12255.81969105114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12001.94873046875</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12001.78604403409</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11753.00146484375</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11752.62446732955</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11508.5712890625</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9894318255511197</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11508.29847301136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11268.8388671875</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9970454573631287</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11268.59241832386</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11033.67431640625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11033.52325994318</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10803.091796875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10802.98153409091</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10577.10498046875</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10576.87526633523</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10355.24951171875</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9965909123420715</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10355.13219105114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10137.833984375</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10137.68856534091</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9924.568359375</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9917045506564054</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9924.44149502841</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9715.44921875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9715.30459872159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9510.36328125</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9510.232599431818</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9309.2431640625</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9309.12295809659</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9112.07666015625</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9111.944779829546</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8918.77587890625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9965909123420715</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8918.59188565341</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8729.09765625</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8729.002574573864</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8543.3037109375</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9893181920051575</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8543.146839488636</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8360.93017578125</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8360.8623046875</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9943482443482443</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9943482443482443</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9523809523809523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9943482443482443</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9523809523809523</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9943482443482443</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9761904761904762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.1767676767676768</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9943482443482443</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9761904761904762</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.1767676767676768</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9943482443482443</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9943482443482443</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9846079846079846</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9846079846079846</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8282828282828283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9846079846079846</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8434343434343434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9846079846079846</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8484848484848485</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9846079846079846</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8585858585858586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9846079846079846</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8636363636363636</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9846079846079846</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8838383838383839</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9846079846079846</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9393939393939394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9846079846079846</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9393939393939394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9846079846079846</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9846079846079846</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+        <v>2579.198572495404</v>
       </c>
     </row>
   </sheetData>
